--- a/Test_Suite/rdp_launch.xlsx
+++ b/Test_Suite/rdp_launch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\WorkSpace3\HPEasyShell\Test_Suite\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B0D61A-02C2-41A7-93F0-96636F48787D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D048088-9D52-4238-AB5C-A1E0A6967719}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="0" windowWidth="18570" windowHeight="11220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>CheckPoint</t>
   </si>
@@ -43,8 +43,23 @@
     <t>EasyShellTest().resetEasyshell()</t>
   </si>
   <si>
+    <t>rdp = Shell_RDP(); util = EasyshellLib.CommonUtils</t>
+  </si>
+  <si>
+    <t>util.SwitchToUser()</t>
+  </si>
+  <si>
+    <t>rdp.check('standardRDP')</t>
+  </si>
+  <si>
+    <t>util.SwitchToAdmin()</t>
+  </si>
+  <si>
+    <t>util.Reboot()</t>
+  </si>
+  <si>
     <r>
-      <t>Shell_RDP().create(</t>
+      <t>rdp.create(</t>
     </r>
     <r>
       <rPr>
@@ -67,16 +82,10 @@
     </r>
   </si>
   <si>
-    <t>Shell_RDP().check('standardRDP')</t>
-  </si>
-  <si>
-    <t>EasyshellLib.CommonUtils.SwitchToUser()</t>
-  </si>
-  <si>
-    <t>EasyshellLib.CommonUtils.Reboot()</t>
-  </si>
-  <si>
-    <t>EasyshellLib.CommonUtils.SwitchToAdmin()</t>
+    <t>#N</t>
+  </si>
+  <si>
+    <t>#Y</t>
   </si>
 </sst>
 </file>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,78 +475,85 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="3"/>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
@@ -555,14 +571,17 @@
       <c r="C37" s="3"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="2"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
